--- a/data-raw/Malaria Readiness Assessment_National.xlsx
+++ b/data-raw/Malaria Readiness Assessment_National.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB065D3-B938-1F4E-869B-EDD1D3D27DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0882C87E-95CE-8341-A7EB-8B625E3468E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="196">
   <si>
     <t>type</t>
   </si>
@@ -586,6 +586,30 @@
   </si>
   <si>
     <t>3d. If other, please specify</t>
+  </si>
+  <si>
+    <t>1.13 Update of the National immunization strategy(NIS) and Uganda Malaria Reduction and Elimination Strategic plan to include the malaria vaccine</t>
+  </si>
+  <si>
+    <t>coordination_meetings_1.14</t>
+  </si>
+  <si>
+    <t>1.14 Coordination meetings at national level (NCC,TCC,ICC,Top management,HPAC,Senior top management)</t>
+  </si>
+  <si>
+    <t>defaulter_tracking_concept_1.15</t>
+  </si>
+  <si>
+    <t>1.15 Development of defaulter tracking concept</t>
+  </si>
+  <si>
+    <t>malaria_vaccine_research_agenda_1.16</t>
+  </si>
+  <si>
+    <t>1. 16 Development and planning of Malaria vaccine research agenda</t>
+  </si>
+  <si>
+    <t>update_nis_umresp_1_13</t>
   </si>
 </sst>
 </file>
@@ -1068,11 +1092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1519,14 +1543,17 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>98</v>
+      <c r="A31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1534,10 +1561,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1548,10 +1575,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -1562,38 +1589,38 @@
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
+      <c r="A35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>99</v>
+      <c r="A36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1601,10 +1628,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -1615,10 +1642,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -1629,38 +1656,38 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
+      <c r="A40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>100</v>
+      <c r="A41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,10 +1695,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -1682,10 +1709,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -1696,27 +1723,24 @@
         <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
+      <c r="A45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,10 +1748,10 @@
         <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -1738,10 +1762,10 @@
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
@@ -1752,24 +1776,27 @@
         <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>101</v>
+      <c r="A49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1777,10 +1804,10 @@
         <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -1791,10 +1818,10 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -1805,27 +1832,24 @@
         <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
+      <c r="A53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1833,10 +1857,10 @@
         <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -1847,10 +1871,10 @@
         <v>36</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -1861,67 +1885,99 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2876,30 +2932,54 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-    </row>
-    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="5"/>
-      <c r="L226" s="6"/>
-    </row>
-    <row r="227" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="5"/>
-      <c r="L227" s="6"/>
-    </row>
-    <row r="228" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="5"/>
-      <c r="L228" s="6"/>
-    </row>
-    <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="5"/>
-      <c r="L229" s="6"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="L233" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
